--- a/data/absence/absence.xlsx
+++ b/data/absence/absence.xlsx
@@ -137,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -198,17 +198,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023_TIM01_000017</t>
+          <t>2023_TIM01_000033</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>장성화</t>
+          <t>유오선</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sh@onware.co.kr</t>
+          <t>osyu@onware.co.kr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -228,71 +228,71 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023.03.13(종일) ~ 2023.03.13(종일)</t>
+          <t>2023.04.27(종일) ~ 2023.04.27(종일)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023.03.08</t>
+          <t>2023.04.25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023_TIM01_000015</t>
+          <t>2023_TIM01_000032</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김명진</t>
+          <t>장성화</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mj@onware.co.kr</t>
+          <t>sh@onware.co.kr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>연차</t>
+          <t>공가</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023.03.13(종일) ~ 2023.03.13(종일)</t>
+          <t>2023.04.26(오후) ~ 2023.04.26(오후)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023.03.08</t>
+          <t>2023.04.24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023_TIM01_000012</t>
+          <t>2023_TIM01_000031</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이은희</t>
+          <t>김명진</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>eh@onware.co.kr</t>
+          <t>mj@onware.co.kr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -302,44 +302,44 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>연차</t>
+          <t>공가</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2023.04.27(오후) ~ 2023.04.28(종일)</t>
+          <t>2023.04.25(오후) ~ 2023.04.25(오후)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023.03.06</t>
+          <t>2023.04.24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023_TIM01_000011</t>
+          <t>2023_TIM01_000029</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>유오선</t>
+          <t>배재영</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>osyu@onware.co.kr</t>
+          <t>jy@onware.co.kr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -354,34 +354,34 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2023.03.03(종일) ~ 2023.03.03(종일)</t>
+          <t>2023.04.25(종일) ~ 2023.04.25(종일)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023.03.02</t>
+          <t>2023.04.24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023_TIM01_000010</t>
+          <t>2023_TIM01_000028</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>이은희</t>
+          <t>유오선</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>eh@onware.co.kr</t>
+          <t>osyu@onware.co.kr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -391,24 +391,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2023.03.24(종일) ~ 2023.03.27(종일)</t>
+          <t>2023.04.28(종일) ~ 2023.04.28(종일)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023.02.28</t>
+          <t>2023.04.21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023_TIM01_000009</t>
+          <t>2023_TIM01_000027</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -438,34 +438,34 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2023.02.28(종일) ~ 2023.02.28(종일)</t>
+          <t>2023.04.17(종일) ~ 2023.04.17(종일)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023.02.27</t>
+          <t>2023.04.17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023_TIM01_000008</t>
+          <t>2023_TIM01_000026</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>유오선</t>
+          <t>장성화</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>osyu@onware.co.kr</t>
+          <t>sh@onware.co.kr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -475,34 +475,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2023.02.20(종일) ~ 2023.02.20(종일) / 2023.02.27(종일) ~ 2023.02.27(종일)</t>
+          <t>2023.04.14(종일) ~ 2023.04.14(종일)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2023.02.17</t>
+          <t>2023.04.12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023_TIM01_000007</t>
+          <t>2023_TIM01_000025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이은희</t>
+          <t>김명진</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>eh@onware.co.kr</t>
+          <t>mj@onware.co.kr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -517,39 +517,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.500</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2023.02.10(오후) ~ 2023.02.10(오후)</t>
+          <t>2023.04.11(종일) ~ 2023.04.11(종일)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2023.02.08</t>
+          <t>2023.04.07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023_TIM01_000006</t>
+          <t>2023_TIM01_000024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>김명진</t>
+          <t>배재영</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>mj@onware.co.kr</t>
+          <t>jy@onware.co.kr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -564,34 +564,34 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2023.02.13(종일) ~ 2023.02.13(종일)</t>
+          <t>2023.04.05(종일) ~ 2023.04.05(종일)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2023.02.06</t>
+          <t>2023.04.04</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023_TIM01_000005</t>
+          <t>2023_TIM01_000023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>유오선</t>
+          <t>이미림</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>osyu@onware.co.kr</t>
+          <t>mr@onware.co.kr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>나주 지사</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -601,39 +601,39 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2023.01.30(종일) ~ 2023.01.30(종일)</t>
+          <t>2023.04.07(오후) ~ 2023.04.07(오후)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2023.01.26</t>
+          <t>2023.04.03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023_TIM01_000004</t>
+          <t>2023_TIM01_000022</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>이은희</t>
+          <t>장성화</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eh@onware.co.kr</t>
+          <t>sh@onware.co.kr</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -643,34 +643,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2023.01.27(오후) ~ 2023.01.27(오후) / 2023.02.13(종일) ~ 2023.02.14(종일)</t>
+          <t>2023.04.07(종일) ~ 2023.04.07(종일)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2023.01.16</t>
+          <t>2023.03.31</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023_TIM01_000003</t>
+          <t>2023_TIM01_000021</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>배재영</t>
+          <t>유오선</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>jy@onware.co.kr</t>
+          <t>osyu@onware.co.kr</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -685,24 +685,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>8.500</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2023.01.17(종일) ~ 2023.01.19(종일)</t>
+          <t>2023.03.31(오후) ~ 2023.03.31(오후) / 2023.04.04(종일) ~ 2023.04.06(종일) / 2023.04.10(종일) ~ 2023.04.14(종일)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2023.01.16</t>
+          <t>2023.03.31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023_TIM01_000002</t>
+          <t>2023_TIM01_000020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>경영지원팀</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -727,17 +727,59 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2023.01.16(종일) ~ 2023.01.16(종일)</t>
+          <t>2023.04.03(종일) ~ 2023.04.03(종일) / 2023.04.07(종일) ~ 2023.04.07(종일)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2023.01.13</t>
+          <t>2023.03.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023_TIM01_000012</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>이은희</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>eh@onware.co.kr</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>기술지원팀</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>연차</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023.04.27(오후) ~ 2023.04.28(종일)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023.03.06</t>
         </is>
       </c>
     </row>

--- a/data/absence/absence.xlsx
+++ b/data/absence/absence.xlsx
@@ -137,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -198,7 +198,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023_TIM01_000033</t>
+          <t>2023_TIM01_000042</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -223,34 +223,34 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>1.500</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023.04.27(종일) ~ 2023.04.27(종일)</t>
+          <t>2023.05.30(오전) ~ 2023.05.30(오전) / 2023.06.05(종일) ~ 2023.06.05(종일)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023.04.25</t>
+          <t>2023.05.26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023_TIM01_000032</t>
+          <t>2023_TIM01_000039</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>장성화</t>
+          <t>배재영</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sh@onware.co.kr</t>
+          <t>jy@onware.co.kr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -260,86 +260,86 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>공가</t>
+          <t>연차</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.500</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023.04.26(오후) ~ 2023.04.26(오후)</t>
+          <t>2023.05.26(종일) ~ 2023.05.26(종일)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023.04.24</t>
+          <t>2023.05.23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023_TIM01_000031</t>
+          <t>2023_TIM01_000038</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>김명진</t>
+          <t>양경민</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>mj@onware.co.kr</t>
+          <t>km@onware.co.kr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>나주 지사</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>공가</t>
+          <t>연차</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.500</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2023.04.25(오후) ~ 2023.04.25(오후)</t>
+          <t>2023.05.19(종일) ~ 2023.05.19(종일)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023.04.24</t>
+          <t>2023.05.15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023_TIM01_000029</t>
+          <t>2023_TIM01_000036</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>배재영</t>
+          <t>이은희</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jy@onware.co.kr</t>
+          <t>eh@onware.co.kr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>기술연구소</t>
+          <t>기술지원팀</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -349,34 +349,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2023.04.25(종일) ~ 2023.04.25(종일)</t>
+          <t>2023.05.22(종일) ~ 2023.05.23(종일)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023.04.24</t>
+          <t>2023.05.10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023_TIM01_000028</t>
+          <t>2023_TIM01_000035</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>유오선</t>
+          <t>장성화</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>osyu@onware.co.kr</t>
+          <t>sh@onware.co.kr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -396,19 +396,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2023.04.28(종일) ~ 2023.04.28(종일)</t>
+          <t>2023.05.08(종일) ~ 2023.05.08(종일)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023.04.21</t>
+          <t>2023.05.03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023_TIM01_000027</t>
+          <t>2023_TIM01_000034</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -433,353 +433,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2023.04.17(종일) ~ 2023.04.17(종일)</t>
+          <t>2023.05.15(종일) ~ 2023.05.17(종일)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023.04.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023_TIM01_000026</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>장성화</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>sh@onware.co.kr</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>기술연구소</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>연차</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2023.04.14(종일) ~ 2023.04.14(종일)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2023.04.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023_TIM01_000025</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>김명진</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>mj@onware.co.kr</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>기술지원팀</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>연차</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2023.04.11(종일) ~ 2023.04.11(종일)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2023.04.07</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023_TIM01_000024</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>배재영</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>jy@onware.co.kr</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>기술연구소</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>연차</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2023.04.05(종일) ~ 2023.04.05(종일)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023_TIM01_000023</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>이미림</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>mr@onware.co.kr</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>나주 지사</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>연차</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2023.04.07(오후) ~ 2023.04.07(오후)</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2023.04.03</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023_TIM01_000022</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>장성화</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>sh@onware.co.kr</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>기술연구소</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>연차</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2023.04.07(종일) ~ 2023.04.07(종일)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2023.03.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023_TIM01_000021</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>유오선</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>osyu@onware.co.kr</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>기술연구소</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>연차</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.500</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2023.03.31(오후) ~ 2023.03.31(오후) / 2023.04.04(종일) ~ 2023.04.06(종일) / 2023.04.10(종일) ~ 2023.04.14(종일)</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2023.03.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2023_TIM01_000020</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>유오선</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>osyu@onware.co.kr</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>기술연구소</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>연차</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.000</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2023.04.03(종일) ~ 2023.04.03(종일) / 2023.04.07(종일) ~ 2023.04.07(종일)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2023.03.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2023_TIM01_000012</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>이은희</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>eh@onware.co.kr</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>기술지원팀</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>연차</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.500</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2023.04.27(오후) ~ 2023.04.28(종일)</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2023.03.06</t>
+          <t>2023.05.02</t>
         </is>
       </c>
     </row>

--- a/data/absence/absence.xlsx
+++ b/data/absence/absence.xlsx
@@ -137,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -198,22 +198,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023_TIM01_000042</t>
+          <t>2023_TIM01_000048</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>유오선</t>
+          <t>양경민</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>osyu@onware.co.kr</t>
+          <t>km@onware.co.kr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>기술연구소</t>
+          <t>나주 지사</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -228,34 +228,34 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023.05.30(오전) ~ 2023.05.30(오전) / 2023.06.05(종일) ~ 2023.06.05(종일)</t>
+          <t>2023.06.26(오후) ~ 2023.06.27(종일)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023.05.26</t>
+          <t>2023.06.23</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023_TIM01_000039</t>
+          <t>2023_TIM01_000047</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>배재영</t>
+          <t>김명진</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jy@onware.co.kr</t>
+          <t>mj@onware.co.kr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>기술연구소</t>
+          <t>기술지원팀</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -270,34 +270,34 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023.05.26(종일) ~ 2023.05.26(종일)</t>
+          <t>2023.06.22(종일) ~ 2023.06.22(종일)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023.05.23</t>
+          <t>2023.06.16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023_TIM01_000038</t>
+          <t>2023_TIM01_000045</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>양경민</t>
+          <t>배재영</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>km@onware.co.kr</t>
+          <t>jy@onware.co.kr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>나주 지사</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -312,34 +312,34 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2023.05.19(종일) ~ 2023.05.19(종일)</t>
+          <t>2023.06.09(종일) ~ 2023.06.09(종일)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023.05.15</t>
+          <t>2023.06.08</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023_TIM01_000036</t>
+          <t>2023_TIM01_000044</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>이은희</t>
+          <t>배재영</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>eh@onware.co.kr</t>
+          <t>jy@onware.co.kr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -354,34 +354,34 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2023.05.22(종일) ~ 2023.05.23(종일)</t>
+          <t>2023.06.12(종일) ~ 2023.06.13(종일)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023.05.10</t>
+          <t>2023.06.02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023_TIM01_000035</t>
+          <t>2023_TIM01_000043</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>장성화</t>
+          <t>이은희</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sh@onware.co.kr</t>
+          <t>eh@onware.co.kr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>기술연구소</t>
+          <t>기술지원팀</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -391,39 +391,39 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2023.05.08(종일) ~ 2023.05.08(종일)</t>
+          <t>2023.06.09(오후) ~ 2023.06.09(오후)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023.05.03</t>
+          <t>2023.05.31</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023_TIM01_000034</t>
+          <t>2023_TIM01_000042</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>김명진</t>
+          <t>유오선</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mj@onware.co.kr</t>
+          <t>osyu@onware.co.kr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -433,17 +433,59 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>1.500</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2023.05.15(종일) ~ 2023.05.17(종일)</t>
+          <t>2023.05.30(오전) ~ 2023.05.30(오전) / 2023.06.05(종일) ~ 2023.06.05(종일)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023.05.02</t>
+          <t>2023.05.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023_TIM01_000040</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>이미림</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mr@onware.co.kr</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>나주 지사</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>연차</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023.06.05(종일) ~ 2023.06.07(종일)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023.05.23</t>
         </is>
       </c>
     </row>

--- a/data/absence/absence.xlsx
+++ b/data/absence/absence.xlsx
@@ -137,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -198,17 +198,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023_TIM01_000048</t>
+          <t>2023_TIM01_000053</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>양경민</t>
+          <t>이미림</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>km@onware.co.kr</t>
+          <t>mr@onware.co.kr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -223,24 +223,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023.06.26(오후) ~ 2023.06.27(종일)</t>
+          <t>2023.07.28(종일) ~ 2023.07.28(종일)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023.06.23</t>
+          <t>2023.07.25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023_TIM01_000047</t>
+          <t>2023_TIM01_000052</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -265,39 +265,39 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023.06.22(종일) ~ 2023.06.22(종일)</t>
+          <t>2023.07.27(종일) ~ 2023.07.27(종일) / 2023.07.31(종일) ~ 2023.07.31(종일)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023.06.16</t>
+          <t>2023.07.21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023_TIM01_000045</t>
+          <t>2023_TIM01_000050</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>배재영</t>
+          <t>이은희</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>jy@onware.co.kr</t>
+          <t>eh@onware.co.kr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>기술연구소</t>
+          <t>기술지원팀</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -307,34 +307,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2023.06.09(종일) ~ 2023.06.09(종일)</t>
+          <t>2023.07.31(종일) ~ 2023.08.02(종일)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023.06.08</t>
+          <t>2023.07.13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023_TIM01_000044</t>
+          <t>2023_TIM01_000049</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>배재영</t>
+          <t>장성화</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jy@onware.co.kr</t>
+          <t>sh@onware.co.kr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -349,39 +349,39 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2023.06.12(종일) ~ 2023.06.13(종일)</t>
+          <t>2023.07.21(오후) ~ 2023.07.21(오후)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023.06.02</t>
+          <t>2023.07.11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023_TIM01_000043</t>
+          <t>2023_TIM01_000046</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>이은희</t>
+          <t>장성화</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>eh@onware.co.kr</t>
+          <t>sh@onware.co.kr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -391,101 +391,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.500</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2023.06.09(오후) ~ 2023.06.09(오후)</t>
+          <t>2023.07.14(종일) ~ 2023.07.17(종일)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023.05.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023_TIM01_000042</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>유오선</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>osyu@onware.co.kr</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>기술연구소</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>연차</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.500</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2023.05.30(오전) ~ 2023.05.30(오전) / 2023.06.05(종일) ~ 2023.06.05(종일)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2023.05.26</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023_TIM01_000040</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>이미림</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>mr@onware.co.kr</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>나주 지사</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>연차</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.000</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2023.06.05(종일) ~ 2023.06.07(종일)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2023.05.23</t>
+          <t>2023.06.16</t>
         </is>
       </c>
     </row>

--- a/data/absence/absence.xlsx
+++ b/data/absence/absence.xlsx
@@ -137,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -198,22 +198,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023_TIM01_000053</t>
+          <t>2023_TIM01_000062</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이미림</t>
+          <t>장성화</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mr@onware.co.kr</t>
+          <t>sh@onware.co.kr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>나주 지사</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -228,34 +228,34 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023.07.28(종일) ~ 2023.07.28(종일)</t>
+          <t>2023.08.18(종일 / 00:00 ~ 23:59)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023.07.25</t>
+          <t>2023.08.17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023_TIM01_000052</t>
+          <t>2023_TIM01_000061</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김명진</t>
+          <t>이미림</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mj@onware.co.kr</t>
+          <t>mr@onware.co.kr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>나주 지사</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -265,39 +265,39 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023.07.27(종일) ~ 2023.07.27(종일) / 2023.07.31(종일) ~ 2023.07.31(종일)</t>
+          <t>2023.08.14(종일 / 00:00 ~ 23:59)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023.07.21</t>
+          <t>2023.08.11</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023_TIM01_000050</t>
+          <t>2023_TIM01_000060</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이은희</t>
+          <t>양경민</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>eh@onware.co.kr</t>
+          <t>km@onware.co.kr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>나주 지사</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -307,34 +307,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2023.07.31(종일) ~ 2023.08.02(종일)</t>
+          <t>2023.08.14(종일 / 00:00 ~ 23:59)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023.07.13</t>
+          <t>2023.08.08</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023_TIM01_000049</t>
+          <t>2023_TIM01_000058</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>장성화</t>
+          <t>유오선</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sh@onware.co.kr</t>
+          <t>osyu@onware.co.kr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -349,34 +349,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.500</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2023.07.21(오후) ~ 2023.07.21(오후)</t>
+          <t>2023.08.07(종일 / 00:00 ~ 23:59)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023.07.11</t>
+          <t>2023.08.06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023_TIM01_000046</t>
+          <t>2023_TIM01_000059</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>장성화</t>
+          <t>배재영</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sh@onware.co.kr</t>
+          <t>jy@onware.co.kr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -391,17 +391,185 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023.08.07(종일 / 00:00 ~ 23:59)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023.08.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023_TIM01_000056</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>배재영</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jy@onware.co.kr</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>기술연구소</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>연차</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2023.08.04(종일 / 00:00 ~ 23:59)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023.08.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023_TIM01_000057</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>김명진</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mj@onware.co.kr</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>기술지원팀</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>연차</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023.08.11(종일 / 00:00 ~ 23:59)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023.08.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023_TIM01_000055</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>유오선</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>osyu@onware.co.kr</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>기술연구소</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>연차</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>2.000</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2023.07.14(종일) ~ 2023.07.17(종일)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2023.06.16</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023.08.03(종일) ~ 2023.08.04(종일)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023.07.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023_TIM01_000050</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>이은희</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>eh@onware.co.kr</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>기술지원팀</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>연차</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2023.07.31(종일) ~ 2023.08.02(종일)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023.07.13</t>
         </is>
       </c>
     </row>

--- a/data/absence/absence.xlsx
+++ b/data/absence/absence.xlsx
@@ -198,17 +198,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023_TIM01_000062</t>
+          <t>2023_TIM01_000073</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>장성화</t>
+          <t>배재영</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sh@onware.co.kr</t>
+          <t>jy@onware.co.kr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -228,34 +228,34 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2023.08.18(종일 / 00:00 ~ 23:59)</t>
+          <t>2023.09.27(종일 / 00:00 ~ 23:59)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023.08.17</t>
+          <t>2023.09.26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023_TIM01_000061</t>
+          <t>2023_TIM01_000072</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이미림</t>
+          <t>김명진</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mr@onware.co.kr</t>
+          <t>mj@onware.co.kr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>나주 지사</t>
+          <t>기술지원팀</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -265,39 +265,39 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2023.08.14(종일 / 00:00 ~ 23:59)</t>
+          <t>2023.09.21(종일) ~ 2023.10.06(종일)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023.08.11</t>
+          <t>2023.09.20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023_TIM01_000060</t>
+          <t>2023_TIM01_000071</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>양경민</t>
+          <t>유오선</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>km@onware.co.kr</t>
+          <t>osyu@onware.co.kr</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>나주 지사</t>
+          <t>기술연구소</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -307,24 +307,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2023.08.14(종일 / 00:00 ~ 23:59)</t>
+          <t>2023.09.21(오전 / 09:00 ~ 14:00)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023.08.08</t>
+          <t>2023.09.19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023_TIM01_000058</t>
+          <t>2023_TIM01_000070</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -354,29 +354,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2023.08.07(종일 / 00:00 ~ 23:59)</t>
+          <t>2023.09.20(종일 / 00:00 ~ 23:59)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023.08.06</t>
+          <t>2023.09.19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023_TIM01_000059</t>
+          <t>2023_TIM01_000068</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>배재영</t>
+          <t>장성화</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>jy@onware.co.kr</t>
+          <t>sh@onware.co.kr</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -391,39 +391,39 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2023.08.07(종일 / 00:00 ~ 23:59)</t>
+          <t>2023.09.08(종일) ~ 2023.09.11(종일)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023.08.06</t>
+          <t>2023.09.05</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023_TIM01_000056</t>
+          <t>2023_TIM01_000066</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>배재영</t>
+          <t>김명진</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>jy@onware.co.kr</t>
+          <t>mj@onware.co.kr</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>기술연구소</t>
+          <t>기술지원팀</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -438,29 +438,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2023.08.04(종일 / 00:00 ~ 23:59)</t>
+          <t>2023.09.07(종일 / 00:00 ~ 23:59)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023.08.03</t>
+          <t>2023.09.01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023_TIM01_000057</t>
+          <t>2023_TIM01_000067</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>김명진</t>
+          <t>이은희</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mj@onware.co.kr</t>
+          <t>eh@onware.co.kr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -475,39 +475,39 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2023.08.11(종일 / 00:00 ~ 23:59)</t>
+          <t>2023.09.14(오후 / 14:00 ~ 18:00)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2023.08.03</t>
+          <t>2023.09.01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023_TIM01_000055</t>
+          <t>2023_TIM01_000064</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>유오선</t>
+          <t>이은희</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>osyu@onware.co.kr</t>
+          <t>eh@onware.co.kr</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>기술연구소</t>
+          <t>기술지원팀</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -517,39 +517,39 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2023.08.03(종일) ~ 2023.08.04(종일)</t>
+          <t>2023.09.22(오후 / 14:00 ~ 18:00)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2023.07.31</t>
+          <t>2023.08.29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023_TIM01_000050</t>
+          <t>2023_TIM01_000063</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이은희</t>
+          <t>양경민</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eh@onware.co.kr</t>
+          <t>km@onware.co.kr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>기술지원팀</t>
+          <t>나주 지사</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -559,17 +559,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2023.07.31(종일) ~ 2023.08.02(종일)</t>
+          <t>2023.09.01(종일 / 00:00 ~ 23:59)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2023.07.13</t>
+          <t>2023.08.25</t>
         </is>
       </c>
     </row>
